--- a/src/main/java/com/demo/qa/testdata/FreeCrmTestData.xlsx
+++ b/src/main/java/com/demo/qa/testdata/FreeCrmTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1955B045-093D-4A9C-8A7F-E182F19DF216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{45812FCC-BBBD-4ADC-8721-8B427B4A1611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,8 +12,8 @@
     <sheet name="deals" sheetId="2" r:id="rId2"/>
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H20"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
